--- a/data/trans_orig/P69$dolorEspalda-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P69$dolorEspalda-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>95045</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86490</v>
+        <v>87026</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>101335</v>
+        <v>101538</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8604183854527575</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7829685275768847</v>
+        <v>0.787824277452968</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9173606034498057</v>
+        <v>0.9191945957248148</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -765,19 +765,19 @@
         <v>31751</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26352</v>
+        <v>26100</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35397</v>
+        <v>34832</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8451563070789723</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7014477040556384</v>
+        <v>0.6947299415438745</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9422095913106421</v>
+        <v>0.9271592949005262</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>121</v>
@@ -786,19 +786,19 @@
         <v>126796</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>117650</v>
+        <v>117607</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135517</v>
+        <v>134436</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8565451428219631</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7947591253115963</v>
+        <v>0.7944670473888159</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9154546615934179</v>
+        <v>0.908153302084588</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>28477</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19721</v>
+        <v>20338</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39468</v>
+        <v>38048</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2577966446630201</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1785314770384325</v>
+        <v>0.1841178961949789</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3572893333692456</v>
+        <v>0.3444366082535326</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -836,19 +836,19 @@
         <v>10103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5338</v>
+        <v>5809</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16201</v>
+        <v>16060</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.268914793687292</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1420867392182796</v>
+        <v>0.1546227744196467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.431246104500604</v>
+        <v>0.4274809974665498</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -857,19 +857,19 @@
         <v>38580</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28454</v>
+        <v>28333</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49832</v>
+        <v>50248</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.260618232111444</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1922157265536885</v>
+        <v>0.1914003921952388</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3366286519415773</v>
+        <v>0.3394368407725999</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>38327</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27891</v>
+        <v>28065</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>49321</v>
+        <v>49396</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3469658904413096</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2524881516558253</v>
+        <v>0.2540632873965759</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4464871413847473</v>
+        <v>0.4471662605120517</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -907,19 +907,19 @@
         <v>14215</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8594</v>
+        <v>8814</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20627</v>
+        <v>20165</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.378377755120513</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2287542659510868</v>
+        <v>0.234616586134545</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5490697284946557</v>
+        <v>0.5367711819824909</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -928,19 +928,19 @@
         <v>52542</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41574</v>
+        <v>41181</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>64754</v>
+        <v>64441</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3549376601052115</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2808451598617264</v>
+        <v>0.2781906290018089</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4374291483405632</v>
+        <v>0.4353152588395299</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>79981</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>70033</v>
+        <v>68924</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>89260</v>
+        <v>88912</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7240498915445915</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.633987556487837</v>
+        <v>0.6239472990621555</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8080500515807233</v>
+        <v>0.8048973502764335</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -978,19 +978,19 @@
         <v>21099</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14907</v>
+        <v>15080</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26906</v>
+        <v>26899</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5616346659014404</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3967899916499828</v>
+        <v>0.4013934464377927</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7161899900349268</v>
+        <v>0.7159972276605391</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -999,19 +999,19 @@
         <v>101081</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88268</v>
+        <v>89170</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112042</v>
+        <v>111451</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6828318109893465</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5962731174245507</v>
+        <v>0.6023707720029173</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7568745522976338</v>
+        <v>0.7528814540420575</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>29850</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20883</v>
+        <v>20329</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39374</v>
+        <v>40687</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2702213665113197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1890525007295658</v>
+        <v>0.1840309024464586</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.35644116297798</v>
+        <v>0.3683250513711673</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -1049,19 +1049,19 @@
         <v>8297</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4229</v>
+        <v>4203</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14992</v>
+        <v>14817</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2208593980537433</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1125768219291313</v>
+        <v>0.1118744854901432</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3990733071559452</v>
+        <v>0.3944060966047306</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>36</v>
@@ -1070,19 +1070,19 @@
         <v>38147</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28501</v>
+        <v>28227</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50567</v>
+        <v>50732</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.257694181426344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1925315037209811</v>
+        <v>0.1906813607263727</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3415952797916447</v>
+        <v>0.3427098615885362</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>13412</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7558</v>
+        <v>7818</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21819</v>
+        <v>21455</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1214108835620159</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06842343188092251</v>
+        <v>0.07077057945962281</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1975258354041622</v>
+        <v>0.1942287680962869</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1120,19 +1120,19 @@
         <v>5093</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1974</v>
+        <v>1967</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>11027</v>
+        <v>11052</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1355642590910476</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05255599304963027</v>
+        <v>0.0523451031883575</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2935257839444378</v>
+        <v>0.2941953664010453</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -1141,19 +1141,19 @@
         <v>18504</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11551</v>
+        <v>11137</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27612</v>
+        <v>27960</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.125002757232567</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07802956733184363</v>
+        <v>0.07523045515388925</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1865262114478396</v>
+        <v>0.1888804104354475</v>
       </c>
     </row>
     <row r="10">
@@ -1170,19 +1170,19 @@
         <v>7565</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3721</v>
+        <v>3565</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14514</v>
+        <v>14674</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06848692314692194</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03368134741779902</v>
+        <v>0.03227114232433491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1313892026624913</v>
+        <v>0.1328422696173539</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1191,19 +1191,19 @@
         <v>3012</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7750</v>
+        <v>7961</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08016854594512395</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02228971146564252</v>
+        <v>0.02295151116831236</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.206280984806659</v>
+        <v>0.2119075560593178</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1212,19 +1212,19 @@
         <v>10577</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5636</v>
+        <v>5673</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17708</v>
+        <v>17997</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07145151016519931</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03806960499032133</v>
+        <v>0.03831985994238361</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1196245283916301</v>
+        <v>0.1215727189280901</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>219377</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>203505</v>
+        <v>204626</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>231861</v>
+        <v>232865</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7645258865083112</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7092110842319448</v>
+        <v>0.7131184749931405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8080332242060583</v>
+        <v>0.8115320653151461</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>96</v>
@@ -1266,19 +1266,19 @@
         <v>98398</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>88714</v>
+        <v>88699</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>105468</v>
+        <v>104981</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8298668110435453</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7481904287134356</v>
+        <v>0.7480670107408873</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8894963070359833</v>
+        <v>0.8853866057647667</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>302</v>
@@ -1287,19 +1287,19 @@
         <v>317774</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>297815</v>
+        <v>300502</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>332405</v>
+        <v>332369</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7836312418082827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7344110238005584</v>
+        <v>0.7410376699762168</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8197099197045717</v>
+        <v>0.819623127734491</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>118636</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>102279</v>
+        <v>103551</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>136872</v>
+        <v>136074</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4134438584905767</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3564398523418512</v>
+        <v>0.3608726619186012</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4769956560749987</v>
+        <v>0.474216155355098</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>57</v>
@@ -1337,19 +1337,19 @@
         <v>58559</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48337</v>
+        <v>47676</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>69790</v>
+        <v>70274</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4938691500548967</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4076625390028881</v>
+        <v>0.4020906108315347</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5885956614531805</v>
+        <v>0.5926763479789354</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>165</v>
@@ -1358,19 +1358,19 @@
         <v>177194</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>157547</v>
+        <v>158620</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>199167</v>
+        <v>197863</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4369598062885233</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3885102485573025</v>
+        <v>0.3911563803082208</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4911450477298255</v>
+        <v>0.4879297950622749</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>88956</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73743</v>
+        <v>73265</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>105697</v>
+        <v>107592</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3100096698564196</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.256993923987936</v>
+        <v>0.2553281785580039</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3683539675721481</v>
+        <v>0.3749580765900889</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -1408,19 +1408,19 @@
         <v>38390</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28349</v>
+        <v>28343</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48972</v>
+        <v>49473</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3237703747358965</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2390890317507854</v>
+        <v>0.2390357804236981</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4130197484902231</v>
+        <v>0.4172428479833494</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>118</v>
@@ -1429,19 +1429,19 @@
         <v>127345</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>110095</v>
+        <v>108137</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>148238</v>
+        <v>149352</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3140332302478661</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2714947046273617</v>
+        <v>0.2666669848204505</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3655554507750465</v>
+        <v>0.3683015732367781</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>143347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>125942</v>
+        <v>126192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>160816</v>
+        <v>161522</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4995622934569289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4389061953243607</v>
+        <v>0.4397773212506398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5604406442699726</v>
+        <v>0.5629023148355712</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -1479,19 +1479,19 @@
         <v>69430</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>57630</v>
+        <v>58628</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>80591</v>
+        <v>79647</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5855596454784633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4860386340060346</v>
+        <v>0.4944547174827282</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6796829970252763</v>
+        <v>0.6717277024745963</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>202</v>
@@ -1500,19 +1500,19 @@
         <v>212777</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>191526</v>
+        <v>193046</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>232084</v>
+        <v>231684</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5247074835030563</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4723024491543645</v>
+        <v>0.4760506663468083</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5723203077586027</v>
+        <v>0.5713326025759801</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>84607</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>69500</v>
+        <v>68931</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>103844</v>
+        <v>100970</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2948552909866261</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2422053540513894</v>
+        <v>0.240222628039543</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3618936708738918</v>
+        <v>0.3518786035132518</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>56</v>
@@ -1550,19 +1550,19 @@
         <v>56972</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>46528</v>
+        <v>46534</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>68410</v>
+        <v>68246</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4804909336869586</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3924060944832028</v>
+        <v>0.3924599662318765</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5769545045176129</v>
+        <v>0.5755746201315107</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>131</v>
@@ -1571,19 +1571,19 @@
         <v>141579</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>122080</v>
+        <v>123080</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>162316</v>
+        <v>162383</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3491342124337191</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3010484013635677</v>
+        <v>0.3035157869685273</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.400270840314384</v>
+        <v>0.4004352707334696</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>68063</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53595</v>
+        <v>52675</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84711</v>
+        <v>83927</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2371988379439901</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1867788290899594</v>
+        <v>0.1835730744882593</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2952181464477768</v>
+        <v>0.292484891578587</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -1621,19 +1621,19 @@
         <v>28185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19687</v>
+        <v>19732</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39019</v>
+        <v>37609</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2377047187074836</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1660367541347234</v>
+        <v>0.1664116432495489</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3290795973226133</v>
+        <v>0.3171816572527989</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -1642,19 +1642,19 @@
         <v>96248</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>80489</v>
+        <v>78352</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>116855</v>
+        <v>115796</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.237346754916312</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1984851657290096</v>
+        <v>0.1932162870307634</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2881652873199485</v>
+        <v>0.2855528156509882</v>
       </c>
     </row>
     <row r="17">
@@ -1671,19 +1671,19 @@
         <v>26303</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17083</v>
+        <v>16883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38345</v>
+        <v>38282</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09166734323316646</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05953503840166091</v>
+        <v>0.05883538607037277</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.133631514930337</v>
+        <v>0.1334112683838701</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1692,19 +1692,19 @@
         <v>10030</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5075</v>
+        <v>5102</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17084</v>
+        <v>17206</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0845867024964654</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04279812591041968</v>
+        <v>0.04302565480001176</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1440861912790378</v>
+        <v>0.1451080514631351</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -1713,19 +1713,19 @@
         <v>36333</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25710</v>
+        <v>25473</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50694</v>
+        <v>49663</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08959699975412402</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06340067794427959</v>
+        <v>0.06281582327831808</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1250105062273211</v>
+        <v>0.1224681215038141</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>39335</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>29669</v>
+        <v>30231</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47458</v>
+        <v>47658</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5310145932124627</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4005221879357895</v>
+        <v>0.4081126916630727</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6406781321710199</v>
+        <v>0.6433751955786733</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -1767,19 +1767,19 @@
         <v>41427</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32744</v>
+        <v>33862</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48739</v>
+        <v>48993</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.64746676956075</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5117591280517537</v>
+        <v>0.5292376932903428</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7617446892006099</v>
+        <v>0.7657232953438946</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>77</v>
@@ -1788,19 +1788,19 @@
         <v>80762</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>68913</v>
+        <v>68717</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>92484</v>
+        <v>91918</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5849843781708484</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4991621593968095</v>
+        <v>0.4977388071273339</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6698924275444815</v>
+        <v>0.6657890187358926</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>57127</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>47643</v>
+        <v>48668</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63314</v>
+        <v>63636</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7712038926810499</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6431706373197272</v>
+        <v>0.6570033048672157</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8547300414252857</v>
+        <v>0.8590746129282244</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -1838,19 +1838,19 @@
         <v>44357</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>36282</v>
+        <v>36788</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51482</v>
+        <v>51457</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.693262029904482</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5670506562958095</v>
+        <v>0.5749657965276377</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8046274014733322</v>
+        <v>0.8042263646819058</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>97</v>
@@ -1859,19 +1859,19 @@
         <v>101484</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>89433</v>
+        <v>90381</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110518</v>
+        <v>112373</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.735081720427897</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6477914993277308</v>
+        <v>0.6546618662659941</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8005221227421028</v>
+        <v>0.8139567208318461</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>21934</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14742</v>
+        <v>15056</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30381</v>
+        <v>30940</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2961057027415397</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1990206385583645</v>
+        <v>0.2032472647791741</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4101325932588139</v>
+        <v>0.4176794839538087</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -1909,19 +1909,19 @@
         <v>15148</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8556</v>
+        <v>9402</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23345</v>
+        <v>23227</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2367539954150207</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1337253832531796</v>
+        <v>0.1469493587143026</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3648565235273761</v>
+        <v>0.3630253181292096</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>36</v>
@@ -1930,19 +1930,19 @@
         <v>37082</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26770</v>
+        <v>27220</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>48377</v>
+        <v>48592</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2685991418358415</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1939046994838295</v>
+        <v>0.1971649260748323</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3504120158543862</v>
+        <v>0.3519682786401689</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>22584</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15834</v>
+        <v>15503</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>31636</v>
+        <v>31420</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3048820971947152</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2137497803145276</v>
+        <v>0.2092910174304627</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4270832907274963</v>
+        <v>0.4241605558137651</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -1980,19 +1980,19 @@
         <v>23387</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>15742</v>
+        <v>15971</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31734</v>
+        <v>31119</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3655155919572129</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2460273685158483</v>
+        <v>0.2496169200804725</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4959775174395878</v>
+        <v>0.486366068565548</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>43</v>
@@ -2001,19 +2001,19 @@
         <v>45971</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>34891</v>
+        <v>35130</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>57232</v>
+        <v>58127</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3329827027499117</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2527285618297565</v>
+        <v>0.254458658602731</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4145497481457417</v>
+        <v>0.42103276780613</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>26614</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18446</v>
+        <v>19253</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>35494</v>
+        <v>36148</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3592829228886509</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2490196922582877</v>
+        <v>0.2599160590584071</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4791570718359867</v>
+        <v>0.4879930791056858</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -2051,19 +2051,19 @@
         <v>24899</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16380</v>
+        <v>16422</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32793</v>
+        <v>32519</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3891489670174335</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2560089974411049</v>
+        <v>0.2566605293201405</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5125289376768494</v>
+        <v>0.5082376088372851</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -2072,19 +2072,19 @@
         <v>51513</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40848</v>
+        <v>40523</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63159</v>
+        <v>63537</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3731243471516656</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2958749498565608</v>
+        <v>0.2935203141435192</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4574812244167818</v>
+        <v>0.4602193840414762</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>25212</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17324</v>
+        <v>17715</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33791</v>
+        <v>34388</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3403544426886663</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2338675562154556</v>
+        <v>0.2391524494341322</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4561735193135745</v>
+        <v>0.4642344911536798</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -2122,19 +2122,19 @@
         <v>14366</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8340</v>
+        <v>8556</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>21688</v>
+        <v>22194</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2245346826167352</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1303421215026824</v>
+        <v>0.1337239453346182</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3389681324094592</v>
+        <v>0.3468801767700932</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -2143,19 +2143,19 @@
         <v>39578</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>30008</v>
+        <v>29537</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>51418</v>
+        <v>52239</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2866777511829701</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2173585648610047</v>
+        <v>0.2139430824235234</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3724370302916499</v>
+        <v>0.3783868268917896</v>
       </c>
     </row>
     <row r="24">
@@ -2172,19 +2172,19 @@
         <v>9639</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4911</v>
+        <v>4317</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17121</v>
+        <v>17001</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1301293059657701</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06630422481962545</v>
+        <v>0.05827485220500821</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2311296846194527</v>
+        <v>0.2295063774896738</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2193,19 +2193,19 @@
         <v>10584</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5354</v>
+        <v>5151</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17966</v>
+        <v>16726</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1654212510552267</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08367728962871258</v>
+        <v>0.08051157317851923</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2807998181441922</v>
+        <v>0.2614076463790377</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -2214,19 +2214,19 @@
         <v>20223</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12446</v>
+        <v>12705</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29322</v>
+        <v>30023</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1464853651393189</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09015290329414259</v>
+        <v>0.09202470129668461</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2123906973828749</v>
+        <v>0.2174657758179264</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>353757</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>335356</v>
+        <v>333454</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>372126</v>
+        <v>370998</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7503056370517724</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7112782480957366</v>
+        <v>0.7072429394357618</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7892653238315847</v>
+        <v>0.7868738769702831</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>167</v>
@@ -2268,19 +2268,19 @@
         <v>171575</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>159680</v>
+        <v>157988</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>182337</v>
+        <v>183550</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7794578571851941</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7254192725872813</v>
+        <v>0.7177327577425068</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8283479674172423</v>
+        <v>0.8338607545681462</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>500</v>
@@ -2289,19 +2289,19 @@
         <v>525332</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>500723</v>
+        <v>502178</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>547205</v>
+        <v>546356</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7595840928127164</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.72400084746952</v>
+        <v>0.7261050829676298</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7912102802791806</v>
+        <v>0.7899833629964365</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>204240</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>181318</v>
+        <v>183758</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>225428</v>
+        <v>228962</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4331848574900252</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3845677611404195</v>
+        <v>0.3897433772710261</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4781247226262521</v>
+        <v>0.4856202332883515</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>111</v>
@@ -2339,19 +2339,19 @@
         <v>113018</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>98113</v>
+        <v>97496</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>127379</v>
+        <v>126836</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5134340852877562</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4457231826801007</v>
+        <v>0.4429179215040394</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5786791822972083</v>
+        <v>0.5762096929885986</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>301</v>
@@ -2360,19 +2360,19 @@
         <v>317257</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>289552</v>
+        <v>290317</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>342779</v>
+        <v>342965</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4587262710277726</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4186673132849512</v>
+        <v>0.419772627578116</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4956288314082727</v>
+        <v>0.4958969238729041</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>149217</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>128715</v>
+        <v>128855</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>170856</v>
+        <v>170867</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3164837226835816</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2729994480930364</v>
+        <v>0.2732959653132987</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3623789901640502</v>
+        <v>0.3624026539284253</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>66</v>
@@ -2410,19 +2410,19 @@
         <v>67753</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>55026</v>
+        <v>54836</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>82571</v>
+        <v>81500</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3077970380900666</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2499826198199568</v>
+        <v>0.2491175096472877</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3751146895309611</v>
+        <v>0.3702513128093003</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>205</v>
@@ -2431,19 +2431,19 @@
         <v>216970</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>192497</v>
+        <v>191224</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>242309</v>
+        <v>244672</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3137189583417468</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2783337553679417</v>
+        <v>0.2764930752277935</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3503569665684023</v>
+        <v>0.3537740996175125</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>245913</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>222389</v>
+        <v>224723</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>268768</v>
+        <v>267332</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.521571467442312</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4716793852738177</v>
+        <v>0.4766290170674969</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5700461878482095</v>
+        <v>0.5670018662808933</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>111</v>
@@ -2481,19 +2481,19 @@
         <v>113916</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>99141</v>
+        <v>98690</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>128106</v>
+        <v>127830</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5175159643610313</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4503939174513055</v>
+        <v>0.448343887092658</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5819819474799803</v>
+        <v>0.5807251949632133</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>344</v>
@@ -2502,19 +2502,19 @@
         <v>359829</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>329989</v>
+        <v>333308</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>384374</v>
+        <v>386561</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.520280697622524</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4771347410317658</v>
+        <v>0.4819339088249364</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5557714096120838</v>
+        <v>0.5589325105985754</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>141071</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>121827</v>
+        <v>121875</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>161183</v>
+        <v>161933</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2992060202306581</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.258390417246937</v>
+        <v>0.2584916572404595</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3418639923984502</v>
+        <v>0.3434533710114525</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>88</v>
@@ -2552,19 +2552,19 @@
         <v>90168</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>76990</v>
+        <v>76631</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>105004</v>
+        <v>105090</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4096293551981223</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3497614453508551</v>
+        <v>0.3481299055301779</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4770271555561956</v>
+        <v>0.4774190371140655</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>218</v>
@@ -2573,19 +2573,19 @@
         <v>231239</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>207386</v>
+        <v>206265</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>256874</v>
+        <v>256657</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3343511317790205</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2998622001105888</v>
+        <v>0.2982409999237129</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3714170716350577</v>
+        <v>0.371103540515008</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>106686</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>89300</v>
+        <v>88353</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>126882</v>
+        <v>126381</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2262775625735675</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1894013191336443</v>
+        <v>0.1873924258736802</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2691109502259632</v>
+        <v>0.2680494230285334</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>46</v>
@@ -2623,19 +2623,19 @@
         <v>47644</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>35644</v>
+        <v>36628</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>60459</v>
+        <v>60397</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.216444335976834</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1619313647916679</v>
+        <v>0.166400985339355</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2746614329706836</v>
+        <v>0.2743791551200981</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>144</v>
@@ -2644,19 +2644,19 @@
         <v>154330</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>131716</v>
+        <v>132100</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>178167</v>
+        <v>176756</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2231478812817975</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1904501091331066</v>
+        <v>0.1910048197338785</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2576141302133736</v>
+        <v>0.2555731421493981</v>
       </c>
     </row>
     <row r="31">
@@ -2673,19 +2673,19 @@
         <v>43508</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>32596</v>
+        <v>31693</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>59858</v>
+        <v>57932</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09227914549549156</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06913572457270538</v>
+        <v>0.06721882422434443</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1269570171588757</v>
+        <v>0.1228715741606439</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>23</v>
@@ -2694,19 +2694,19 @@
         <v>23625</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>15752</v>
+        <v>16487</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>33649</v>
+        <v>34144</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1073289172997801</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07155843227762516</v>
+        <v>0.074898073833478</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1528638663928821</v>
+        <v>0.1551129796159994</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>63</v>
@@ -2715,19 +2715,19 @@
         <v>67133</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>52441</v>
+        <v>52138</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>85889</v>
+        <v>83720</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09706912860001349</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07582522091171168</v>
+        <v>0.0753868709165062</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1241875076940045</v>
+        <v>0.1210518082130286</v>
       </c>
     </row>
     <row r="32">
@@ -2987,19 +2987,19 @@
         <v>42426</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34972</v>
+        <v>35222</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48734</v>
+        <v>48407</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7219428548668493</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.595092025959337</v>
+        <v>0.5993508617466642</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.829276068351688</v>
+        <v>0.8237021669230384</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -3008,19 +3008,19 @@
         <v>27546</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21671</v>
+        <v>21104</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32547</v>
+        <v>31940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7261313106760079</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5712792794567028</v>
+        <v>0.5563287226798032</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8579730537249191</v>
+        <v>0.841976402611992</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -3029,19 +3029,19 @@
         <v>69972</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60780</v>
+        <v>59604</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>79126</v>
+        <v>77731</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7235859220464991</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6285254562809121</v>
+        <v>0.6163728044697284</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8182480632542868</v>
+        <v>0.803816409492339</v>
       </c>
     </row>
     <row r="5">
@@ -3058,19 +3058,19 @@
         <v>19335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12565</v>
+        <v>13225</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26664</v>
+        <v>26535</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3433159904762795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2231088454057614</v>
+        <v>0.2348286258484964</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4734590820407208</v>
+        <v>0.4711580860978797</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>19</v>
@@ -3079,19 +3079,19 @@
         <v>19438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13575</v>
+        <v>13664</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25203</v>
+        <v>25688</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5123978755371343</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3578533811398474</v>
+        <v>0.3601974219582523</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6643786673824131</v>
+        <v>0.6771705421121106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -3100,19 +3100,19 @@
         <v>38773</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29342</v>
+        <v>29194</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48597</v>
+        <v>48609</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4113675758599398</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3113060247254322</v>
+        <v>0.3097360185525118</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5156007196154209</v>
+        <v>0.5157331519306494</v>
       </c>
     </row>
     <row r="6">
@@ -3129,19 +3129,19 @@
         <v>13936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8258</v>
+        <v>8180</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22116</v>
+        <v>21690</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2415078733895003</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1431026431172813</v>
+        <v>0.1417604889812387</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3832743343838093</v>
+        <v>0.3758775291144184</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -3150,19 +3150,19 @@
         <v>11284</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6138</v>
+        <v>6387</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17098</v>
+        <v>18466</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2974456307848904</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1617901674002891</v>
+        <v>0.1683785159360013</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4507139027881628</v>
+        <v>0.4867858022859013</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -3171,19 +3171,19 @@
         <v>25219</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17432</v>
+        <v>17218</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34843</v>
+        <v>34262</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2636953384414025</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1822673342233993</v>
+        <v>0.1800306402321969</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3643184421821057</v>
+        <v>0.3582478273382277</v>
       </c>
     </row>
     <row r="7">
@@ -3200,19 +3200,19 @@
         <v>34038</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26888</v>
+        <v>26604</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41638</v>
+        <v>41128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5898709355742795</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4659676252182913</v>
+        <v>0.4610428142451221</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7215826906303374</v>
+        <v>0.7127482355518026</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -3221,19 +3221,19 @@
         <v>19818</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13360</v>
+        <v>13808</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25256</v>
+        <v>26641</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5224192047455923</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3521845029333893</v>
+        <v>0.3640036931222129</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6657690632659652</v>
+        <v>0.7022693809398727</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -3242,19 +3242,19 @@
         <v>53855</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44477</v>
+        <v>44296</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63498</v>
+        <v>63442</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5631165036818214</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4650570301741329</v>
+        <v>0.4631641163873816</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6639417087571413</v>
+        <v>0.6633567751780378</v>
       </c>
     </row>
     <row r="8">
@@ -3271,19 +3271,19 @@
         <v>9556</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4899</v>
+        <v>4912</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16546</v>
+        <v>16042</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.168604904621536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08644691927409905</v>
+        <v>0.08667551970804736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2919425934862074</v>
+        <v>0.283040535466434</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -3292,19 +3292,19 @@
         <v>11080</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5950</v>
+        <v>6151</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16849</v>
+        <v>17437</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2920803369486297</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1568395171436338</v>
+        <v>0.1621545910208712</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4441589716307817</v>
+        <v>0.4596437703793116</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -3313,19 +3313,19 @@
         <v>20636</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13679</v>
+        <v>12827</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30165</v>
+        <v>28451</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2181132084084702</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1445792298383367</v>
+        <v>0.1355723724617552</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.318836103672192</v>
+        <v>0.3007164653732376</v>
       </c>
     </row>
     <row r="9">
@@ -3342,19 +3342,19 @@
         <v>13539</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7434</v>
+        <v>8206</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20627</v>
+        <v>20587</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2346236176093201</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1288223105037394</v>
+        <v>0.142209004570782</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3574665445861424</v>
+        <v>0.3567627480803866</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -3363,19 +3363,19 @@
         <v>8025</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3909</v>
+        <v>3940</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13456</v>
+        <v>13649</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2115368606234087</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1030431464512811</v>
+        <v>0.1038709829983675</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3547118283582705</v>
+        <v>0.3597999785786054</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>21</v>
@@ -3384,19 +3384,19 @@
         <v>21563</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14400</v>
+        <v>14863</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30814</v>
+        <v>30988</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2254663571534535</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1505712936011401</v>
+        <v>0.1554089086323024</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3221931932357093</v>
+        <v>0.324011925276288</v>
       </c>
     </row>
     <row r="10">
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6257</v>
+        <v>6187</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06529147836887568</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2005460668329915</v>
+        <v>0.1983141082744877</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7120</v>
+        <v>6237</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0385963166998094</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1349073242397122</v>
+        <v>0.1181848181679502</v>
       </c>
     </row>
     <row r="11">
@@ -3480,19 +3480,19 @@
         <v>168389</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>154342</v>
+        <v>152676</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>180526</v>
+        <v>179666</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7594024188746996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6960539695821992</v>
+        <v>0.6885413462132092</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8141380152406037</v>
+        <v>0.810260868735303</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>102</v>
@@ -3501,19 +3501,19 @@
         <v>111577</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>102340</v>
+        <v>101763</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118771</v>
+        <v>118647</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8547979970529066</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7840370850203389</v>
+        <v>0.7796154633441819</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9099101835205963</v>
+        <v>0.9089649631601916</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>264</v>
@@ -3522,19 +3522,19 @@
         <v>279966</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>263486</v>
+        <v>261744</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>295923</v>
+        <v>293898</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7947504262706478</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7479678704352003</v>
+        <v>0.7430221348228644</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8400482706666614</v>
+        <v>0.8342989729795981</v>
       </c>
     </row>
     <row r="12">
@@ -3551,19 +3551,19 @@
         <v>100057</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84061</v>
+        <v>85287</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>114799</v>
+        <v>114621</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4512399470452712</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3790999214751999</v>
+        <v>0.3846287243867335</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5177224658312805</v>
+        <v>0.516918199664067</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>65</v>
@@ -3572,19 +3572,19 @@
         <v>71100</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58739</v>
+        <v>58140</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>82680</v>
+        <v>82957</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5403890778112972</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4464368543327972</v>
+        <v>0.4418884028129675</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6284030801741485</v>
+        <v>0.6305052985070495</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>160</v>
@@ -3593,19 +3593,19 @@
         <v>171158</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>152176</v>
+        <v>151513</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>190004</v>
+        <v>190350</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4844388598636399</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4307150454585112</v>
+        <v>0.4288361183963007</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5377813315577196</v>
+        <v>0.5387600543185241</v>
       </c>
     </row>
     <row r="13">
@@ -3622,19 +3622,19 @@
         <v>53858</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41812</v>
+        <v>41043</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>68289</v>
+        <v>67000</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2453073738817984</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1904441649848084</v>
+        <v>0.1869407601736535</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3110391495966541</v>
+        <v>0.3051671884545801</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -3643,19 +3643,19 @@
         <v>49294</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38868</v>
+        <v>38910</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62505</v>
+        <v>61590</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3779558643715016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2980185103711731</v>
+        <v>0.2983383382414425</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4792544929868885</v>
+        <v>0.4722372218000789</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -3664,19 +3664,19 @@
         <v>103152</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87241</v>
+        <v>86513</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121041</v>
+        <v>121653</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2947405258801306</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2492771209378395</v>
+        <v>0.2471972295389096</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3458565324187383</v>
+        <v>0.3476056129700731</v>
       </c>
     </row>
     <row r="14">
@@ -3693,19 +3693,19 @@
         <v>124665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110560</v>
+        <v>111007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>139145</v>
+        <v>140649</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5648558513354964</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5009425049853172</v>
+        <v>0.502970610656242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6304629906041034</v>
+        <v>0.6372785898885031</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -3714,19 +3714,19 @@
         <v>76464</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>64913</v>
+        <v>64111</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88479</v>
+        <v>87388</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5857942545605875</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4973039328130732</v>
+        <v>0.4911625708402458</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6778458402819245</v>
+        <v>0.66948446667606</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>188</v>
@@ -3735,19 +3735,19 @@
         <v>201130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>182766</v>
+        <v>180461</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>220641</v>
+        <v>218428</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5726372666922246</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5203550079323844</v>
+        <v>0.5137923684960485</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6281889961136333</v>
+        <v>0.6218873421989395</v>
       </c>
     </row>
     <row r="15">
@@ -3764,19 +3764,19 @@
         <v>63538</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>51360</v>
+        <v>50894</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>78555</v>
+        <v>78907</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2866913303612422</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2317439889781337</v>
+        <v>0.2296423704637201</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3544527758704404</v>
+        <v>0.3560398151798599</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>49</v>
@@ -3785,19 +3785,19 @@
         <v>55478</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>44151</v>
+        <v>42897</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>67639</v>
+        <v>67093</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4248644246156535</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3381191133549821</v>
+        <v>0.3285142079099896</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5179930375753954</v>
+        <v>0.5138085423955355</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>110</v>
@@ -3806,19 +3806,19 @@
         <v>119016</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>100903</v>
+        <v>99858</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>139402</v>
+        <v>137874</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3379189887443919</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2864905127996951</v>
+        <v>0.2835234601469942</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3957999504903805</v>
+        <v>0.3914621940431681</v>
       </c>
     </row>
     <row r="16">
@@ -3835,19 +3835,19 @@
         <v>55643</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43779</v>
+        <v>43654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>70173</v>
+        <v>69660</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2512428086672599</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1976705799740807</v>
+        <v>0.197106649441692</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3168486796678651</v>
+        <v>0.314528758180785</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -3856,19 +3856,19 @@
         <v>40788</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29911</v>
+        <v>30181</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51772</v>
+        <v>52499</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3123617538004495</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2290641261215118</v>
+        <v>0.231135639664017</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3964807782532918</v>
+        <v>0.4020466423690252</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -3877,19 +3877,19 @@
         <v>96432</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>78467</v>
+        <v>80158</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113719</v>
+        <v>114212</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2739123536986868</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2228847128359248</v>
+        <v>0.227687969501519</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3230166310762437</v>
+        <v>0.3244174190126495</v>
       </c>
     </row>
     <row r="17">
@@ -3906,19 +3906,19 @@
         <v>5790</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2102</v>
+        <v>2021</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11697</v>
+        <v>11828</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06200402620909538</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.022509752903394</v>
+        <v>0.0216455548087529</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.125252763448341</v>
+        <v>0.1266570807321645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -3940,19 +3940,19 @@
         <v>5790</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2155</v>
+        <v>2062</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11797</v>
+        <v>11890</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03674413377597081</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01367783240034757</v>
+        <v>0.01308651368256051</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07486414695460238</v>
+        <v>0.07545533023501211</v>
       </c>
     </row>
     <row r="18">
@@ -3973,19 +3973,19 @@
         <v>31601</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24681</v>
+        <v>24226</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37562</v>
+        <v>38031</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.685655167000276</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5355050380586449</v>
+        <v>0.5256258144358118</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8149873951416408</v>
+        <v>0.8251738987018917</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -3994,19 +3994,19 @@
         <v>27541</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>20867</v>
+        <v>20791</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33944</v>
+        <v>34586</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6093630348138673</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4617101382700028</v>
+        <v>0.4600254509837544</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7510421440014691</v>
+        <v>0.7652481425726526</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>53</v>
@@ -4015,19 +4015,19 @@
         <v>59142</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>49140</v>
+        <v>49349</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>67908</v>
+        <v>67182</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6478823255760575</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5383183498753868</v>
+        <v>0.5406017596000933</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7439084755085721</v>
+        <v>0.735958672880948</v>
       </c>
     </row>
     <row r="19">
@@ -4044,19 +4044,19 @@
         <v>32979</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26272</v>
+        <v>26775</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39117</v>
+        <v>38453</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7155530921279261</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5700330430389439</v>
+        <v>0.5809348480879248</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8487290770974082</v>
+        <v>0.8343279747174986</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -4065,19 +4065,19 @@
         <v>33648</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26379</v>
+        <v>26361</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39251</v>
+        <v>39378</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7264122735867105</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5694855323560452</v>
+        <v>0.5690953934753422</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8473650453864792</v>
+        <v>0.8501009319054948</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -4086,19 +4086,19 @@
         <v>66627</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56984</v>
+        <v>56375</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74657</v>
+        <v>74194</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7209963303123472</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6166461551577498</v>
+        <v>0.6100496700758222</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8078870681691346</v>
+        <v>0.8028811150648671</v>
       </c>
     </row>
     <row r="20">
@@ -4115,19 +4115,19 @@
         <v>9481</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4926</v>
+        <v>4886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16379</v>
+        <v>15932</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2057170743523606</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1068909664734728</v>
+        <v>0.1060097822387268</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3553778067650649</v>
+        <v>0.3456778148337982</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -4136,19 +4136,19 @@
         <v>13895</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8123</v>
+        <v>8155</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21609</v>
+        <v>21987</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2999804288135484</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1753602283224599</v>
+        <v>0.176046309202638</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4665111934352183</v>
+        <v>0.4746568634255773</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -4157,19 +4157,19 @@
         <v>23377</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14567</v>
+        <v>14579</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>33899</v>
+        <v>32078</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2529672186051482</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1576331391060516</v>
+        <v>0.1577621382523348</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3668305316286477</v>
+        <v>0.3471242112841181</v>
       </c>
     </row>
     <row r="21">
@@ -4186,19 +4186,19 @@
         <v>18779</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11084</v>
+        <v>11900</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>25403</v>
+        <v>26206</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4074560686109215</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2404928837024808</v>
+        <v>0.2581935860459456</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5511631771473676</v>
+        <v>0.568600031648986</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>12</v>
@@ -4207,19 +4207,19 @@
         <v>14102</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7837</v>
+        <v>7997</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20960</v>
+        <v>21157</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3120106728519201</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.17340877339017</v>
+        <v>0.1769408623223905</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4637568613807274</v>
+        <v>0.4681206480453217</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>28</v>
@@ -4228,19 +4228,19 @@
         <v>32881</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>23855</v>
+        <v>23673</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>43432</v>
+        <v>43503</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3602002940591283</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2613274541652314</v>
+        <v>0.2593299843831205</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4757884281531961</v>
+        <v>0.4765591086487536</v>
       </c>
     </row>
     <row r="22">
@@ -4257,19 +4257,19 @@
         <v>11451</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6376</v>
+        <v>5838</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18539</v>
+        <v>17807</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2484631935894135</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1383396053396037</v>
+        <v>0.1266619634628884</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4022415508781278</v>
+        <v>0.3863713905360162</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -4278,19 +4278,19 @@
         <v>21491</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>14054</v>
+        <v>14413</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29271</v>
+        <v>29389</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4639481322277061</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3033982123750575</v>
+        <v>0.311154917274002</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6319078439755178</v>
+        <v>0.6344578117454255</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>31</v>
@@ -4299,19 +4299,19 @@
         <v>32942</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>23973</v>
+        <v>23560</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42140</v>
+        <v>42767</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3564764771518463</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2594238088646958</v>
+        <v>0.2549530737840103</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4560065623667856</v>
+        <v>0.462799337119407</v>
       </c>
     </row>
     <row r="23">
@@ -4328,19 +4328,19 @@
         <v>15537</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8976</v>
+        <v>10106</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22619</v>
+        <v>23373</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3371179504688238</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1947583943852545</v>
+        <v>0.2192797624535401</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4907766444956722</v>
+        <v>0.5071265517344857</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>14</v>
@@ -4349,19 +4349,19 @@
         <v>14680</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8970</v>
+        <v>8958</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22393</v>
+        <v>22452</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3169151729653986</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1936464528699589</v>
+        <v>0.1933950235986547</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4834220668325604</v>
+        <v>0.4847101879238424</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -4370,19 +4370,19 @@
         <v>30217</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>21779</v>
+        <v>21317</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>40217</v>
+        <v>40391</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3269911715439676</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2356762344295925</v>
+        <v>0.2306797203839923</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4352052124623892</v>
+        <v>0.4370807039001161</v>
       </c>
     </row>
     <row r="24">
@@ -4412,19 +4412,19 @@
         <v>2849</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6646</v>
+        <v>7122</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1980627091095459</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05871559604429966</v>
+        <v>0.05885070311279104</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4620209955896654</v>
+        <v>0.4950812871493523</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -4433,19 +4433,19 @@
         <v>2849</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7005</v>
+        <v>6984</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08799293845855828</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02656713118729785</v>
+        <v>0.02710805348648817</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2163431816145307</v>
+        <v>0.2156885178529849</v>
       </c>
     </row>
     <row r="25">
@@ -4466,19 +4466,19 @@
         <v>242417</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>227126</v>
+        <v>225974</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>259435</v>
+        <v>258449</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7422548066452149</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6954353108165298</v>
+        <v>0.691908706924807</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7943633586920145</v>
+        <v>0.7913444610738758</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>152</v>
@@ -4487,19 +4487,19 @@
         <v>166663</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>153245</v>
+        <v>153769</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>177616</v>
+        <v>179150</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7800366982645657</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7172322483835627</v>
+        <v>0.7196885891690772</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8312998425582269</v>
+        <v>0.8384756549216308</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>385</v>
@@ -4508,19 +4508,19 @@
         <v>409079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>388652</v>
+        <v>388176</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>429780</v>
+        <v>428870</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7571968181058734</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.719385399831847</v>
+        <v>0.7185054266571018</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7955128757992604</v>
+        <v>0.7938285302846344</v>
       </c>
     </row>
     <row r="26">
@@ -4537,19 +4537,19 @@
         <v>152371</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>134974</v>
+        <v>134932</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>170816</v>
+        <v>171004</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4700704783366038</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4163984223533543</v>
+        <v>0.416268361553431</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5269710618864618</v>
+        <v>0.5275519624012682</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>115</v>
@@ -4558,19 +4558,19 @@
         <v>124186</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>109030</v>
+        <v>108907</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>140092</v>
+        <v>139465</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5753937758091129</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5051703401034251</v>
+        <v>0.5045990448482811</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6490909398210539</v>
+        <v>0.646188140988184</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>260</v>
@@ -4579,19 +4579,19 @@
         <v>276558</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>253453</v>
+        <v>252020</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>301017</v>
+        <v>300766</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5121682694583993</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4693805904142558</v>
+        <v>0.4667258949077353</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5574665082781406</v>
+        <v>0.5570004576638229</v>
       </c>
     </row>
     <row r="27">
@@ -4608,19 +4608,19 @@
         <v>77275</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>62100</v>
+        <v>63479</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>92488</v>
+        <v>94771</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2389861882458208</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1920542138583491</v>
+        <v>0.1963197147665241</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.28603561404289</v>
+        <v>0.2930959265580741</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>69</v>
@@ -4629,19 +4629,19 @@
         <v>74473</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>61687</v>
+        <v>58713</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>90696</v>
+        <v>88871</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3469045488892306</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2873488714486765</v>
+        <v>0.2734924017423629</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.422472470837996</v>
+        <v>0.4139717717412385</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>142</v>
@@ -4650,19 +4650,19 @@
         <v>151748</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>129597</v>
+        <v>131784</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>173619</v>
+        <v>175539</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2820470264287226</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2408768986439808</v>
+        <v>0.2449417127190754</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3226973159457748</v>
+        <v>0.3262658779131574</v>
       </c>
     </row>
     <row r="28">
@@ -4679,19 +4679,19 @@
         <v>177483</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>158738</v>
+        <v>157897</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>194697</v>
+        <v>193541</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5469483254632498</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4891831135837003</v>
+        <v>0.486592384051956</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5999968389926236</v>
+        <v>0.5964366762542879</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>99</v>
@@ -4700,19 +4700,19 @@
         <v>110383</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>94412</v>
+        <v>94187</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>124875</v>
+        <v>126348</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5166286045227552</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4418773661470411</v>
+        <v>0.4408228845376214</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5844516659778844</v>
+        <v>0.5913463157459647</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>268</v>
@@ -4721,19 +4721,19 @@
         <v>287866</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>265489</v>
+        <v>266123</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>310662</v>
+        <v>309679</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5349107003008002</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4933307647070913</v>
+        <v>0.4945078859112831</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5772696531336995</v>
+        <v>0.5754427415477742</v>
       </c>
     </row>
     <row r="29">
@@ -4750,19 +4750,19 @@
         <v>84545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>68402</v>
+        <v>68949</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>100598</v>
+        <v>102337</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2606284306629965</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2108661744055256</v>
+        <v>0.2125500491886914</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3101164540940251</v>
+        <v>0.3154770658136126</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>80</v>
@@ -4771,19 +4771,19 @@
         <v>88049</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>73556</v>
+        <v>73293</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>104158</v>
+        <v>103450</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4098450070977038</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3423844655941635</v>
+        <v>0.3411592332383934</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.484826962223694</v>
+        <v>0.4815307282467947</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>161</v>
@@ -4792,19 +4792,19 @@
         <v>172594</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>151318</v>
+        <v>149137</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>195843</v>
+        <v>197222</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3200786493804164</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2806218501459821</v>
+        <v>0.2765770235042572</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3631940267214583</v>
+        <v>0.3657515175274739</v>
       </c>
     </row>
     <row r="30">
@@ -4821,19 +4821,19 @@
         <v>84720</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>68914</v>
+        <v>68988</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>100726</v>
+        <v>102030</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.260462656912036</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2118686566746162</v>
+        <v>0.2120957624357122</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3096738667320293</v>
+        <v>0.3136808919010208</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>59</v>
@@ -4842,19 +4842,19 @@
         <v>63492</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>50166</v>
+        <v>49850</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>76885</v>
+        <v>77414</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.295540360331722</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2335090934262103</v>
+        <v>0.2320380269767979</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3578815237715143</v>
+        <v>0.3603438400527519</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>140</v>
@@ -4863,19 +4863,19 @@
         <v>148212</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>128199</v>
+        <v>127216</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>170639</v>
+        <v>170113</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2744154553698598</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2373613136806347</v>
+        <v>0.2355410115215651</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3159390324103137</v>
+        <v>0.3149660698995849</v>
       </c>
     </row>
     <row r="31">
@@ -4892,19 +4892,19 @@
         <v>7827</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3887</v>
+        <v>3774</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15160</v>
+        <v>14339</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05489805321214703</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02726088378649663</v>
+        <v>0.02646766334132671</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1063297267122749</v>
+        <v>0.1005730843511929</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -4913,19 +4913,19 @@
         <v>2849</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>898</v>
+        <v>30</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7982</v>
+        <v>8445</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02844565069839271</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.008967359125121237</v>
+        <v>0.00029510510445514</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07968909856953987</v>
+        <v>0.08431024124503823</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>11</v>
@@ -4934,19 +4934,19 @@
         <v>10676</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>5712</v>
+        <v>5660</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>18264</v>
+        <v>17613</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04398300138971414</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.02353232510261353</v>
+        <v>0.02331544189016896</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07524345528342215</v>
+        <v>0.0725616077773812</v>
       </c>
     </row>
     <row r="32">
@@ -5206,19 +5206,19 @@
         <v>43218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35225</v>
+        <v>35423</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>48550</v>
+        <v>48762</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7775728020679686</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6337662432707472</v>
+        <v>0.6373162932330548</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8735042615411444</v>
+        <v>0.8773214908885451</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -5227,7 +5227,7 @@
         <v>16032</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11911</v>
+        <v>11514</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>18024</v>
@@ -5236,7 +5236,7 @@
         <v>0.8894803452564026</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6608624026004967</v>
+        <v>0.638831260312083</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -5248,19 +5248,19 @@
         <v>59250</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49889</v>
+        <v>51121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65404</v>
+        <v>65719</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8049766103155113</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6777944702288952</v>
+        <v>0.6945363809187924</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8885760291615706</v>
+        <v>0.8928653055817498</v>
       </c>
     </row>
     <row r="5">
@@ -5277,19 +5277,19 @@
         <v>23174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15436</v>
+        <v>16374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30483</v>
+        <v>31189</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4169413518470801</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2777228046124641</v>
+        <v>0.2945939628819911</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5484406014714706</v>
+        <v>0.5611485710252091</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -5298,19 +5298,19 @@
         <v>4885</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1865</v>
+        <v>1889</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8954</v>
+        <v>8965</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2710365168289541</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1034773216300415</v>
+        <v>0.1048289326772851</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4967659683084069</v>
+        <v>0.4974198060172986</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -5319,19 +5319,19 @@
         <v>28059</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20156</v>
+        <v>19118</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>36728</v>
+        <v>36270</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.381212320476125</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2738425360408351</v>
+        <v>0.2597327196940508</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4989894863248577</v>
+        <v>0.4927651825538062</v>
       </c>
     </row>
     <row r="6">
@@ -5348,19 +5348,19 @@
         <v>29887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22140</v>
+        <v>22294</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>38013</v>
+        <v>37979</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5377167176663833</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3983424510940378</v>
+        <v>0.4011137984954612</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6839247835975119</v>
+        <v>0.6833091347197388</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -5369,19 +5369,19 @@
         <v>7955</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3990</v>
+        <v>3974</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12733</v>
+        <v>12854</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4413676509210656</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.221362023119836</v>
+        <v>0.2205059837242121</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7064695514473032</v>
+        <v>0.7131650985684063</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -5390,19 +5390,19 @@
         <v>37842</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29465</v>
+        <v>28623</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>45894</v>
+        <v>45975</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5141228537078788</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4003161180352548</v>
+        <v>0.3888754465271931</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6235176012519694</v>
+        <v>0.6246124564235614</v>
       </c>
     </row>
     <row r="7">
@@ -5419,19 +5419,19 @@
         <v>30813</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22219</v>
+        <v>23368</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37575</v>
+        <v>38480</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5543791215733385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3997559332370164</v>
+        <v>0.4204380865607906</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6760352234159824</v>
+        <v>0.6923153870951767</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -5440,19 +5440,19 @@
         <v>11155</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7050</v>
+        <v>6795</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14927</v>
+        <v>15027</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6188908061281791</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.391143603926732</v>
+        <v>0.3769970150018885</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8281561324817959</v>
+        <v>0.8337340301094275</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -5461,19 +5461,19 @@
         <v>41968</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32751</v>
+        <v>32570</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50363</v>
+        <v>50566</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5701766789398693</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4449565476895516</v>
+        <v>0.4425010433224491</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6842275127721849</v>
+        <v>0.6869871614521904</v>
       </c>
     </row>
     <row r="8">
@@ -5490,19 +5490,19 @@
         <v>11666</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6481</v>
+        <v>5943</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19358</v>
+        <v>18581</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2098848974807346</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1166109310383849</v>
+        <v>0.1069298136952797</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3482848784887428</v>
+        <v>0.3343132870661777</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -5511,19 +5511,19 @@
         <v>7998</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3992</v>
+        <v>3975</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>12165</v>
+        <v>12433</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4437593305752692</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2214728915399448</v>
+        <v>0.2205400579941265</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6749104609576224</v>
+        <v>0.6898279147837652</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -5532,19 +5532,19 @@
         <v>19664</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13140</v>
+        <v>12349</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>28973</v>
+        <v>28060</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2671558368287067</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1785198293563955</v>
+        <v>0.1677755446575341</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3936294473515443</v>
+        <v>0.3812214107535831</v>
       </c>
     </row>
     <row r="9">
@@ -5561,19 +5561,19 @@
         <v>12040</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6462</v>
+        <v>6094</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20086</v>
+        <v>18876</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.216619731131124</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1162545897535034</v>
+        <v>0.1096433081451479</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3613773459322887</v>
+        <v>0.3396150427217834</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -5582,19 +5582,19 @@
         <v>4948</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1943</v>
+        <v>1899</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9058</v>
+        <v>9126</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2745030736070417</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1078045128517515</v>
+        <v>0.1053720368692963</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5025718635858423</v>
+        <v>0.5063520320176219</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -5603,19 +5603,19 @@
         <v>16988</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10107</v>
+        <v>10292</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25193</v>
+        <v>25053</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2307941466597175</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.137310612033428</v>
+        <v>0.1398226690825387</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3422696948879935</v>
+        <v>0.3403733588416379</v>
       </c>
     </row>
     <row r="10">
@@ -5632,19 +5632,19 @@
         <v>3379</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9848</v>
+        <v>8469</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06079481527531959</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01805801560183898</v>
+        <v>0.01776847826365032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1771808125540999</v>
+        <v>0.1523683182885542</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -5669,16 +5669,16 @@
         <v>986</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8771</v>
+        <v>9052</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04590744117360826</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01339363684521248</v>
+        <v>0.0133988058076102</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1191678700707215</v>
+        <v>0.1229746426338922</v>
       </c>
     </row>
     <row r="11">
@@ -5699,19 +5699,19 @@
         <v>178635</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>163871</v>
+        <v>165300</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>189852</v>
+        <v>189919</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7819860703056329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7173559417830794</v>
+        <v>0.7236115368252147</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8310922247879491</v>
+        <v>0.8313862196774225</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>111</v>
@@ -5720,19 +5720,19 @@
         <v>112918</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>105350</v>
+        <v>105027</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>118213</v>
+        <v>118338</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9064961928909953</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8457434428046022</v>
+        <v>0.8431496315666271</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9490064870637547</v>
+        <v>0.9500098023876289</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>276</v>
@@ -5741,19 +5741,19 @@
         <v>291552</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>275925</v>
+        <v>277141</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>304614</v>
+        <v>305740</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8259224511468355</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7816518636750466</v>
+        <v>0.7850976132219213</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8629236760698913</v>
+        <v>0.8661134120066373</v>
       </c>
     </row>
     <row r="12">
@@ -5770,19 +5770,19 @@
         <v>82885</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>69634</v>
+        <v>66779</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99720</v>
+        <v>98155</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3628360706963264</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3048282416639936</v>
+        <v>0.2923308985952104</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4365308448959952</v>
+        <v>0.4296794034510641</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>71</v>
@@ -5791,19 +5791,19 @@
         <v>73186</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>62585</v>
+        <v>62170</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>84347</v>
+        <v>84369</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5875313752947755</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5024320888616545</v>
+        <v>0.4990995303150352</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.677129936480968</v>
+        <v>0.6773088008725701</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>147</v>
@@ -5812,19 +5812,19 @@
         <v>156071</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>136744</v>
+        <v>138070</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>174473</v>
+        <v>174854</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4421251941111649</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.387375562532607</v>
+        <v>0.3911299263420216</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4942536166735122</v>
+        <v>0.4953329103165356</v>
       </c>
     </row>
     <row r="13">
@@ -5841,19 +5841,19 @@
         <v>85449</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70236</v>
+        <v>72233</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101415</v>
+        <v>100028</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3740596142145622</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3074637284499074</v>
+        <v>0.3162040510166244</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4439530347647421</v>
+        <v>0.437881252376416</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -5862,19 +5862,19 @@
         <v>52858</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>42612</v>
+        <v>42010</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64082</v>
+        <v>63903</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4243432571639362</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.342087437275646</v>
+        <v>0.3372540128800812</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5144469367961997</v>
+        <v>0.5130120325869745</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -5883,19 +5883,19 @@
         <v>138307</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119733</v>
+        <v>121290</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>158367</v>
+        <v>156285</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3918034027582775</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.339186178821325</v>
+        <v>0.3435965797107577</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4486279749706862</v>
+        <v>0.44273052079828</v>
       </c>
     </row>
     <row r="14">
@@ -5912,19 +5912,19 @@
         <v>145407</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>130166</v>
+        <v>129599</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>159593</v>
+        <v>159421</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6365308753207839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5698097034575564</v>
+        <v>0.5673304931508958</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6986303445190201</v>
+        <v>0.6978751977532427</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>90</v>
@@ -5933,19 +5933,19 @@
         <v>92551</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81627</v>
+        <v>82404</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101404</v>
+        <v>101943</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7429970781676467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6552978062703759</v>
+        <v>0.6615349922318369</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8140633955042865</v>
+        <v>0.8183916704860866</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>226</v>
@@ -5954,19 +5954,19 @@
         <v>237959</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>220294</v>
+        <v>218989</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>255180</v>
+        <v>254390</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6741000266304655</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6240592910040034</v>
+        <v>0.620361033493085</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7228852266237896</v>
+        <v>0.7206465922973934</v>
       </c>
     </row>
     <row r="15">
@@ -5983,19 +5983,19 @@
         <v>60149</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>47118</v>
+        <v>47581</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>74552</v>
+        <v>73636</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2633064018413434</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2062609448245195</v>
+        <v>0.208290601833147</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3263590425868509</v>
+        <v>0.3223483804049507</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>54</v>
@@ -6004,19 +6004,19 @@
         <v>54688</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>44279</v>
+        <v>43846</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>65477</v>
+        <v>65059</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4390327492026603</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3554671694279449</v>
+        <v>0.3519930534059064</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5256452680930019</v>
+        <v>0.5222888164643675</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>110</v>
@@ -6025,19 +6025,19 @@
         <v>114837</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>97216</v>
+        <v>98315</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>131955</v>
+        <v>131227</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3253156550746056</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2753968943964413</v>
+        <v>0.2785098597134291</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3738081469904387</v>
+        <v>0.371745134242741</v>
       </c>
     </row>
     <row r="16">
@@ -6054,19 +6054,19 @@
         <v>44224</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32791</v>
+        <v>31652</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59083</v>
+        <v>56280</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1935916763121761</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1435466703565669</v>
+        <v>0.1385589433568884</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2586401026579702</v>
+        <v>0.2463712139641438</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -6075,19 +6075,19 @@
         <v>39637</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29852</v>
+        <v>28967</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50087</v>
+        <v>49639</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3182018652258585</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2396483310642118</v>
+        <v>0.2325482789778784</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4020944378962215</v>
+        <v>0.3985024099591193</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -6096,19 +6096,19 @@
         <v>83860</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67541</v>
+        <v>68238</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>102968</v>
+        <v>101026</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2375633679555781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1913341331036438</v>
+        <v>0.1933079539644488</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2916928601452989</v>
+        <v>0.286190664763293</v>
       </c>
     </row>
     <row r="17">
@@ -6125,19 +6125,19 @@
         <v>6996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2980</v>
+        <v>2907</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14125</v>
+        <v>13077</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.030625224497585</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01304598607838333</v>
+        <v>0.01272542597773525</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06183332903369648</v>
+        <v>0.05724375646507221</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6876</v>
+        <v>6069</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01533299365116115</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05520199742439992</v>
+        <v>0.04872371024771406</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -6167,19 +6167,19 @@
         <v>8906</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4027</v>
+        <v>4131</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16130</v>
+        <v>15679</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02522899434031865</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01140665439098996</v>
+        <v>0.01170139539495051</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04569447296981701</v>
+        <v>0.04441534247012607</v>
       </c>
     </row>
     <row r="18">
@@ -6200,19 +6200,19 @@
         <v>36499</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28299</v>
+        <v>28601</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>44834</v>
+        <v>44420</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5831000476412046</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4521027535775745</v>
+        <v>0.4569217863143821</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7162660972814726</v>
+        <v>0.7096569390210963</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>49</v>
@@ -6221,19 +6221,19 @@
         <v>54806</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46065</v>
+        <v>45611</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>61956</v>
+        <v>61797</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7435528717578596</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6249673983510166</v>
+        <v>0.6188091442245054</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8405608481285664</v>
+        <v>0.8384022188045849</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>82</v>
@@ -6242,19 +6242,19 @@
         <v>91304</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>79663</v>
+        <v>78770</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>102304</v>
+        <v>102620</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.669868206913024</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5844563132204271</v>
+        <v>0.5779070647437433</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7505694330414839</v>
+        <v>0.7528845459203172</v>
       </c>
     </row>
     <row r="19">
@@ -6271,19 +6271,19 @@
         <v>42546</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35051</v>
+        <v>34094</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49519</v>
+        <v>49743</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6797112805319636</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5599671861436835</v>
+        <v>0.5446891663625572</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7911136691898778</v>
+        <v>0.794688772478725</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -6292,19 +6292,19 @@
         <v>52963</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44211</v>
+        <v>44130</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60348</v>
+        <v>60496</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7185508115145303</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5998152867584712</v>
+        <v>0.5987113102086759</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8187497914343344</v>
+        <v>0.8207462731576872</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -6313,19 +6313,19 @@
         <v>95509</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83101</v>
+        <v>82568</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>105226</v>
+        <v>105506</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7007145544156814</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6096808870351151</v>
+        <v>0.6057710181726651</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7720026193070572</v>
+        <v>0.774060418166749</v>
       </c>
     </row>
     <row r="20">
@@ -6342,19 +6342,19 @@
         <v>19104</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11717</v>
+        <v>12184</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27152</v>
+        <v>28414</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3052011279277991</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1871833369741195</v>
+        <v>0.1946497499798043</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4337784489976136</v>
+        <v>0.4539449920552673</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>26</v>
@@ -6363,19 +6363,19 @@
         <v>29032</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20048</v>
+        <v>20756</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38012</v>
+        <v>38613</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3938834949685219</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2719902429385598</v>
+        <v>0.2815943032212941</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5157146736519435</v>
+        <v>0.5238684098414325</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>42</v>
@@ -6384,19 +6384,19 @@
         <v>48136</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36455</v>
+        <v>36387</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>60679</v>
+        <v>60286</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3531579388493506</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2674600628253022</v>
+        <v>0.2669556306206839</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4451831018524623</v>
+        <v>0.4423000993246576</v>
       </c>
     </row>
     <row r="21">
@@ -6413,19 +6413,19 @@
         <v>30710</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>21608</v>
+        <v>22165</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38399</v>
+        <v>38636</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4906184992226833</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3452080480316836</v>
+        <v>0.3541022737590432</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6134556968224124</v>
+        <v>0.6172492623126181</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>37</v>
@@ -6434,19 +6434,19 @@
         <v>41655</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32877</v>
+        <v>32084</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>50351</v>
+        <v>49853</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5651388889520288</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4460485869190701</v>
+        <v>0.4352897852750479</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6831146191273521</v>
+        <v>0.6763584466729258</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>64</v>
@@ -6455,19 +6455,19 @@
         <v>72365</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>58540</v>
+        <v>60611</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>83992</v>
+        <v>84980</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5309169301205583</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4294864420467608</v>
+        <v>0.4446782582204961</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6162196133995957</v>
+        <v>0.6234653844246298</v>
       </c>
     </row>
     <row r="22">
@@ -6484,19 +6484,19 @@
         <v>21739</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13639</v>
+        <v>14391</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30569</v>
+        <v>30085</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3473014404243802</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2178950105699375</v>
+        <v>0.2299181995400358</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4883616966194239</v>
+        <v>0.4806359532187218</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -6505,19 +6505,19 @@
         <v>26887</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18027</v>
+        <v>18337</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36015</v>
+        <v>35624</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.364777053906799</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2445664507032479</v>
+        <v>0.2487844588944308</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4886225527289167</v>
+        <v>0.4833098060899496</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>44</v>
@@ -6526,19 +6526,19 @@
         <v>48626</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37852</v>
+        <v>37744</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60611</v>
+        <v>62231</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3567517372475315</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2777078782903045</v>
+        <v>0.2769133309062306</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4446806430034355</v>
+        <v>0.4565706460655611</v>
       </c>
     </row>
     <row r="23">
@@ -6555,19 +6555,19 @@
         <v>27372</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18597</v>
+        <v>19381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>35051</v>
+        <v>36193</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4372971550756995</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2970992569004445</v>
+        <v>0.3096366069157043</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5599719090778041</v>
+        <v>0.5782228275703982</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>23</v>
@@ -6576,19 +6576,19 @@
         <v>26016</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17288</v>
+        <v>17977</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35001</v>
+        <v>35190</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3529669427947116</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2345407973391013</v>
+        <v>0.2438905157022266</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4748549203018533</v>
+        <v>0.4774282458552981</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>45</v>
@@ -6597,19 +6597,19 @@
         <v>53389</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>41539</v>
+        <v>42261</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>65760</v>
+        <v>65937</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3916938612047032</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3047567726871543</v>
+        <v>0.3100540846352164</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.482461012421314</v>
+        <v>0.4837571449085395</v>
       </c>
     </row>
     <row r="24">
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6308</v>
+        <v>5722</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02921301562623319</v>
@@ -6638,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1007684483793943</v>
+        <v>0.09141700485205678</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -6647,19 +6647,19 @@
         <v>3424</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>926</v>
+        <v>952</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9587</v>
+        <v>9012</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04646028086735197</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01256662215921136</v>
+        <v>0.01292211599234949</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1300644189536712</v>
+        <v>0.1222613755304552</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -6668,19 +6668,19 @@
         <v>5253</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1839</v>
+        <v>1862</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11312</v>
+        <v>11488</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03853982844915172</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01349491712534246</v>
+        <v>0.01366406034511167</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.082989164809777</v>
+        <v>0.08428582001691956</v>
       </c>
     </row>
     <row r="25">
@@ -6701,19 +6701,19 @@
         <v>258351</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>240415</v>
+        <v>242248</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>274878</v>
+        <v>274994</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7453618280783131</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6936156661349928</v>
+        <v>0.6989035784866918</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7930458372632775</v>
+        <v>0.7933780202102755</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>176</v>
@@ -6722,19 +6722,19 @@
         <v>183756</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>172193</v>
+        <v>172626</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>193936</v>
+        <v>193601</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8495516544384887</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7960905089015456</v>
+        <v>0.7980931011079589</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8966126212754721</v>
+        <v>0.8950642832091905</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>415</v>
@@ -6743,19 +6743,19 @@
         <v>442107</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>421338</v>
+        <v>422182</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>461565</v>
+        <v>461601</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7853967566166571</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7485019623654973</v>
+        <v>0.7499999041859926</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8199636065210227</v>
+        <v>0.8200269035658787</v>
       </c>
     </row>
     <row r="26">
@@ -6772,19 +6772,19 @@
         <v>148605</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>128508</v>
+        <v>129355</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>166508</v>
+        <v>169540</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4287361481059834</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3707550053915741</v>
+        <v>0.373199761561369</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4803890914179072</v>
+        <v>0.4891358427648117</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>125</v>
@@ -6793,19 +6793,19 @@
         <v>131034</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>116520</v>
+        <v>116264</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>144939</v>
+        <v>145294</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6058053637045983</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5387029532001733</v>
+        <v>0.537519115903437</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.670087999540992</v>
+        <v>0.6717307811157897</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>259</v>
@@ -6814,19 +6814,19 @@
         <v>279639</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>254840</v>
+        <v>254115</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>302206</v>
+        <v>305384</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4967749733970942</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4527196020944725</v>
+        <v>0.4514315519026573</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5368654218707142</v>
+        <v>0.5425106622396566</v>
       </c>
     </row>
     <row r="27">
@@ -6843,19 +6843,19 @@
         <v>134439</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>115089</v>
+        <v>116681</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>152217</v>
+        <v>152130</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3878676770580975</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3320400860838325</v>
+        <v>0.3366330653110662</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4391566367143241</v>
+        <v>0.4389072826984182</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>86</v>
@@ -6864,19 +6864,19 @@
         <v>89846</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>75091</v>
+        <v>75251</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>104947</v>
+        <v>104040</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4153820692280323</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3471657890681583</v>
+        <v>0.3479022951737886</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4851958805437624</v>
+        <v>0.4810040163889165</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>208</v>
@@ -6885,19 +6885,19 @@
         <v>224286</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>201635</v>
+        <v>200658</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>246705</v>
+        <v>247962</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3984400790169163</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3582016899958283</v>
+        <v>0.3564664627062321</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4382681065084741</v>
+        <v>0.4405005955612213</v>
       </c>
     </row>
     <row r="28">
@@ -6914,19 +6914,19 @@
         <v>206929</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>186086</v>
+        <v>187368</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>225254</v>
+        <v>224078</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5970073699700595</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5368716060227545</v>
+        <v>0.5405709833171651</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6498751849872402</v>
+        <v>0.6464820260709694</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>138</v>
@@ -6935,19 +6935,19 @@
         <v>145362</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>131536</v>
+        <v>130948</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>159067</v>
+        <v>160046</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6720460150762854</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6081218770139846</v>
+        <v>0.6054033415427434</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7354085112642531</v>
+        <v>0.7399347560053867</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>330</v>
@@ -6956,19 +6956,19 @@
         <v>352292</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>328059</v>
+        <v>328510</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>376103</v>
+        <v>375570</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6258409605363471</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5827930745402837</v>
+        <v>0.583592912524848</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6681408664197361</v>
+        <v>0.66719523352736</v>
       </c>
     </row>
     <row r="29">
@@ -6985,19 +6985,19 @@
         <v>93553</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>75903</v>
+        <v>76904</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>111917</v>
+        <v>112310</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2699085824927863</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2189852522885784</v>
+        <v>0.2218736777271278</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3228884399713669</v>
+        <v>0.3240228490803914</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>87</v>
@@ -7006,19 +7006,19 @@
         <v>89574</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>75644</v>
+        <v>75519</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>104695</v>
+        <v>105459</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4141223261300172</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3497218498504102</v>
+        <v>0.349145205809814</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.484033545160492</v>
+        <v>0.487562230691983</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>173</v>
@@ -7027,19 +7027,19 @@
         <v>183127</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>161409</v>
+        <v>158320</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>207172</v>
+        <v>205004</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3253226965427011</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2867412150779481</v>
+        <v>0.2812529377456128</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3680387518424736</v>
+        <v>0.3641860224045746</v>
       </c>
     </row>
     <row r="30">
@@ -7056,19 +7056,19 @@
         <v>83635</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>67085</v>
+        <v>66813</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>102923</v>
+        <v>101974</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2412947643777143</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1935441484429685</v>
+        <v>0.1927618122528164</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2969418363699701</v>
+        <v>0.2942039944388385</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>67</v>
@@ -7077,19 +7077,19 @@
         <v>70601</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>56103</v>
+        <v>56627</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>84640</v>
+        <v>83884</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3264073825259983</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.259377463026892</v>
+        <v>0.2617988119915161</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3913119486766963</v>
+        <v>0.3878154785327563</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>139</v>
@@ -7098,19 +7098,19 @@
         <v>154237</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>134146</v>
+        <v>133981</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>175901</v>
+        <v>179245</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2739992779018902</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2383085861455493</v>
+        <v>0.2380149277525957</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3124848635257799</v>
+        <v>0.3184266486614154</v>
       </c>
     </row>
     <row r="31">
@@ -7127,19 +7127,19 @@
         <v>12203</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6058</v>
+        <v>6108</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>20031</v>
+        <v>20976</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03520801973458621</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01747915270889484</v>
+        <v>0.0176229105038713</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05778985657878859</v>
+        <v>0.06051862717208015</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -7148,19 +7148,19 @@
         <v>5334</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1926</v>
+        <v>1885</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11788</v>
+        <v>12090</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02466260171940221</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.008903274207891901</v>
+        <v>0.008716335414728993</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.054498297357329</v>
+        <v>0.05589473092014268</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>17</v>
@@ -7169,19 +7169,19 @@
         <v>17538</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10438</v>
+        <v>10321</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>26854</v>
+        <v>27576</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03115594410116114</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01854364667811971</v>
+        <v>0.01833557093096687</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0477060499502651</v>
+        <v>0.04898823360161667</v>
       </c>
     </row>
     <row r="32">
@@ -7441,19 +7441,19 @@
         <v>30676</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25361</v>
+        <v>25120</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33795</v>
+        <v>33598</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8636685514727852</v>
+        <v>0.8636685514727853</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7140239086722221</v>
+        <v>0.70723358504275</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9514971385735702</v>
+        <v>0.9459421536924149</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -7462,19 +7462,19 @@
         <v>21337</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18262</v>
+        <v>17891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22780</v>
+        <v>22741</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9139440991969582</v>
+        <v>0.9139440991969581</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7822436121184355</v>
+        <v>0.7663542181247991</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9757633767949156</v>
+        <v>0.9740698880457302</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -7483,19 +7483,19 @@
         <v>52013</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45862</v>
+        <v>45763</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55485</v>
+        <v>55520</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8836080530408654</v>
+        <v>0.8836080530408653</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7791105438302136</v>
+        <v>0.7774367405503324</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9425998259474705</v>
+        <v>0.9431992950659103</v>
       </c>
     </row>
     <row r="5">
@@ -7512,19 +7512,19 @@
         <v>17701</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11644</v>
+        <v>11569</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23396</v>
+        <v>23424</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.4983682491739251</v>
+        <v>0.4983682491739252</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3278248499164564</v>
+        <v>0.3257106549320708</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6587050514806567</v>
+        <v>0.659490624873491</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -7533,19 +7533,19 @@
         <v>12211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8564</v>
+        <v>8202</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16384</v>
+        <v>16403</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5230344296736082</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3668288820195038</v>
+        <v>0.3513283191715427</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7017969173707955</v>
+        <v>0.7025935521351472</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>33</v>
@@ -7554,19 +7554,19 @@
         <v>29912</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22750</v>
+        <v>22546</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37216</v>
+        <v>37420</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5081509639729825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3864916515818</v>
+        <v>0.3830183480089003</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6322314867599964</v>
+        <v>0.6357079033285594</v>
       </c>
     </row>
     <row r="6">
@@ -7583,19 +7583,19 @@
         <v>16154</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10029</v>
+        <v>10791</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22179</v>
+        <v>22437</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4548022659302928</v>
+        <v>0.454802265930293</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2823552861478861</v>
+        <v>0.3038286948604403</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6244334137858114</v>
+        <v>0.631721178264283</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -7604,19 +7604,19 @@
         <v>9618</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5660</v>
+        <v>5572</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13911</v>
+        <v>13653</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4119817604886767</v>
+        <v>0.4119817604886766</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2424429903823497</v>
+        <v>0.2386743131658975</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5958819365195777</v>
+        <v>0.5848159828707769</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -7625,19 +7625,19 @@
         <v>25772</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18653</v>
+        <v>17964</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>33168</v>
+        <v>33135</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.4378194666561128</v>
+        <v>0.4378194666561129</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3168835501594061</v>
+        <v>0.3051711573560497</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5634693385086925</v>
+        <v>0.5629131076128493</v>
       </c>
     </row>
     <row r="7">
@@ -7654,19 +7654,19 @@
         <v>28316</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22633</v>
+        <v>22812</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32315</v>
+        <v>32492</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.7972299393371041</v>
+        <v>0.7972299393371043</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6372270438250827</v>
+        <v>0.6422557798213077</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.909832070623266</v>
+        <v>0.9148067406592957</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -7675,19 +7675,19 @@
         <v>15694</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11503</v>
+        <v>11674</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19191</v>
+        <v>19028</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6722503084645903</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4927341443035968</v>
+        <v>0.5000240538319809</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8220436793203822</v>
+        <v>0.8150301324006487</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -7696,19 +7696,19 @@
         <v>44010</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37401</v>
+        <v>37302</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49907</v>
+        <v>49817</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.7476624724756269</v>
+        <v>0.7476624724756268</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6353878262970504</v>
+        <v>0.6336999989883381</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8478361422465763</v>
+        <v>0.84630393388212</v>
       </c>
     </row>
     <row r="8">
@@ -7725,19 +7725,19 @@
         <v>4736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1175</v>
+        <v>1195</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11028</v>
+        <v>12141</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1333439055538597</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0330888351273335</v>
+        <v>0.03365440281977148</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3104879856413348</v>
+        <v>0.3418161121260721</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -7746,19 +7746,19 @@
         <v>6671</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3514</v>
+        <v>3149</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11068</v>
+        <v>10759</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2857495149919097</v>
+        <v>0.2857495149919096</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1505274667325482</v>
+        <v>0.1348929400419581</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4740746832414051</v>
+        <v>0.4608668968614744</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -7767,19 +7767,19 @@
         <v>11407</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6633</v>
+        <v>6063</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18917</v>
+        <v>18416</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1937886351676772</v>
+        <v>0.1937886351676771</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1126781634081495</v>
+        <v>0.1030011687004311</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3213699759943248</v>
+        <v>0.3128495696920585</v>
       </c>
     </row>
     <row r="9">
@@ -7796,19 +7796,19 @@
         <v>5054</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1630</v>
+        <v>1643</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11895</v>
+        <v>11090</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1422869442638305</v>
+        <v>0.1422869442638306</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04588765873404582</v>
+        <v>0.04626875155124201</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3348991810969207</v>
+        <v>0.312245215454054</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -7817,19 +7817,19 @@
         <v>5505</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2308</v>
+        <v>2929</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8946</v>
+        <v>8920</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2358054081474737</v>
+        <v>0.2358054081474736</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09887200891783041</v>
+        <v>0.1254811202806094</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3832084161956607</v>
+        <v>0.3820635512100625</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -7838,19 +7838,19 @@
         <v>10559</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>6291</v>
+        <v>6006</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17104</v>
+        <v>16926</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1793767750396727</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1068777968282668</v>
+        <v>0.1020355658747075</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2905619511210842</v>
+        <v>0.2875458734517168</v>
       </c>
     </row>
     <row r="10">
@@ -7870,16 +7870,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5127</v>
+        <v>4632</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0455070906853195</v>
+        <v>0.04550709068531951</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1443411476747956</v>
+        <v>0.1304042654828835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -7891,16 +7891,16 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4236</v>
+        <v>4171</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0585605943960163</v>
+        <v>0.05856059439601628</v>
       </c>
       <c r="O10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1814597329167528</v>
+        <v>0.1786488376387029</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -7909,19 +7909,19 @@
         <v>2983</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>822</v>
+        <v>755</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7826</v>
+        <v>6762</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0506841672064219</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01397100751702313</v>
+        <v>0.01282743282521378</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1329513949841713</v>
+        <v>0.1148668343146302</v>
       </c>
     </row>
     <row r="11">
@@ -7942,19 +7942,19 @@
         <v>215828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>200910</v>
+        <v>201566</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>229257</v>
+        <v>227440</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8064110455115474</v>
+        <v>0.8064110455115475</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7506735663876606</v>
+        <v>0.7531244414282583</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8565876348360278</v>
+        <v>0.8497970442145549</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>253</v>
@@ -7963,19 +7963,19 @@
         <v>180344</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>169692</v>
+        <v>169382</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>189953</v>
+        <v>190548</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8217752334136189</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7732403964542687</v>
+        <v>0.7718260428997172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8655623714145595</v>
+        <v>0.8682738140733861</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>438</v>
@@ -7984,19 +7984,19 @@
         <v>396171</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>379444</v>
+        <v>376219</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>412943</v>
+        <v>411549</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8133332291572256</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7789928081626855</v>
+        <v>0.7723720437908539</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8477660594306243</v>
+        <v>0.8449041569831353</v>
       </c>
     </row>
     <row r="12">
@@ -8013,19 +8013,19 @@
         <v>149812</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>131461</v>
+        <v>131483</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>166768</v>
+        <v>166131</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5597534381029772</v>
+        <v>0.5597534381029773</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4911872416100345</v>
+        <v>0.4912670796870739</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6231057910648289</v>
+        <v>0.620725783583594</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>181</v>
@@ -8034,19 +8034,19 @@
         <v>132510</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>119353</v>
+        <v>119677</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>143867</v>
+        <v>145575</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6038103281420659</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5438584551121383</v>
+        <v>0.5453329467018602</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6555614923627723</v>
+        <v>0.6633468854648733</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>311</v>
@@ -8055,19 +8055,19 @@
         <v>282322</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>258104</v>
+        <v>257806</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>303112</v>
+        <v>303290</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.579602836304291</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5298828547419009</v>
+        <v>0.5292718856691448</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6222840837370038</v>
+        <v>0.6226497827138509</v>
       </c>
     </row>
     <row r="13">
@@ -8084,19 +8084,19 @@
         <v>90799</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74410</v>
+        <v>73503</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107752</v>
+        <v>108393</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3429212966776486</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2810229308627222</v>
+        <v>0.277597822977279</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4069477786729318</v>
+        <v>0.4093677088232274</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>123</v>
@@ -8105,19 +8105,19 @@
         <v>91705</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79343</v>
+        <v>78738</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104611</v>
+        <v>104945</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4178761466209716</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.361543563203958</v>
+        <v>0.3587883298488388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4766821338980336</v>
+        <v>0.4782073007009951</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -8126,19 +8126,19 @@
         <v>182504</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161927</v>
+        <v>161372</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>204425</v>
+        <v>203065</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3768908147160548</v>
+        <v>0.3768908147160546</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3343954372934398</v>
+        <v>0.3332494355145396</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4221590578768544</v>
+        <v>0.4193514183006349</v>
       </c>
     </row>
     <row r="14">
@@ -8155,19 +8155,19 @@
         <v>172140</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>154422</v>
+        <v>154632</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>188238</v>
+        <v>189638</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6431758423200872</v>
+        <v>0.6431758423200873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5769783594637069</v>
+        <v>0.5777625429960593</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7033260937282848</v>
+        <v>0.7085560695227392</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>200</v>
@@ -8176,19 +8176,19 @@
         <v>141583</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129488</v>
+        <v>128213</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>153974</v>
+        <v>154315</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6451561990631358</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5900395503652021</v>
+        <v>0.5842328242190329</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7016169564899282</v>
+        <v>0.703169481464603</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>350</v>
@@ -8197,19 +8197,19 @@
         <v>313723</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>292792</v>
+        <v>291242</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>334225</v>
+        <v>333333</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6440680725600917</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6010974878232125</v>
+        <v>0.5979143333170237</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6861591946008477</v>
+        <v>0.6843265022575155</v>
       </c>
     </row>
     <row r="15">
@@ -8226,19 +8226,19 @@
         <v>59991</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>45979</v>
+        <v>46097</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>76426</v>
+        <v>75843</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.224146452082214</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1717949072900196</v>
+        <v>0.172236092319238</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2855558055895951</v>
+        <v>0.2833758802887184</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>90</v>
@@ -8247,19 +8247,19 @@
         <v>67540</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>56025</v>
+        <v>55532</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>79599</v>
+        <v>79859</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3077595683650261</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2552887275005923</v>
+        <v>0.2530427156511176</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3627116165027313</v>
+        <v>0.3638940226848941</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>140</v>
@@ -8268,19 +8268,19 @@
         <v>127530</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>107416</v>
+        <v>107410</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>146147</v>
+        <v>147036</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2618175187071569</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2205228789771109</v>
+        <v>0.2205115591753272</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3000371325853184</v>
+        <v>0.3018627515160089</v>
       </c>
     </row>
     <row r="16">
@@ -8297,19 +8297,19 @@
         <v>50103</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36590</v>
+        <v>35977</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>65570</v>
+        <v>65367</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1872015400744161</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1367150747990828</v>
+        <v>0.1344241986895623</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2449937339480617</v>
+        <v>0.2442342478468748</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>80</v>
@@ -8318,19 +8318,19 @@
         <v>55505</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45586</v>
+        <v>44011</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>66663</v>
+        <v>66293</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2529230827208694</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2077214650599035</v>
+        <v>0.2005476046383839</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3037651209596212</v>
+        <v>0.3020793091225576</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>120</v>
@@ -8339,19 +8339,19 @@
         <v>105608</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>88583</v>
+        <v>87497</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>126172</v>
+        <v>123436</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2168117342855067</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.181859727522695</v>
+        <v>0.1796309118833817</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2590287335573537</v>
+        <v>0.2534129220389716</v>
       </c>
     </row>
     <row r="17">
@@ -8368,19 +8368,19 @@
         <v>24525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15522</v>
+        <v>15968</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37033</v>
+        <v>37063</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.091635326213705</v>
+        <v>0.09163532621370502</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05799664300927334</v>
+        <v>0.05966402719609811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1383673599744374</v>
+        <v>0.1384825307755158</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -8389,19 +8389,19 @@
         <v>17631</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11482</v>
+        <v>11870</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25717</v>
+        <v>25801</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08033991069627977</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05231820142216843</v>
+        <v>0.05408962384364548</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.117185522305805</v>
+        <v>0.1175694620586333</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -8410,19 +8410,19 @@
         <v>42156</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30976</v>
+        <v>31195</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>55260</v>
+        <v>54945</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08654628792126656</v>
+        <v>0.08654628792126655</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0635934150531362</v>
+        <v>0.06404191984419824</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1134481752379094</v>
+        <v>0.1128012176322117</v>
       </c>
     </row>
     <row r="18">
@@ -8443,19 +8443,19 @@
         <v>37604</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27027</v>
+        <v>26622</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48505</v>
+        <v>48234</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4890570176916504</v>
+        <v>0.4890570176916506</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3515048354169703</v>
+        <v>0.3462305821567445</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6308354311191099</v>
+        <v>0.6273057847096291</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>85</v>
@@ -8464,19 +8464,19 @@
         <v>63170</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>52721</v>
+        <v>54494</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>70862</v>
+        <v>70877</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6382134900506263</v>
+        <v>0.6382134900506262</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5326513967864093</v>
+        <v>0.550561068549003</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7159316224776744</v>
+        <v>0.7160856656878289</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>114</v>
@@ -8485,19 +8485,19 @@
         <v>100773</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>88031</v>
+        <v>87345</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>113563</v>
+        <v>114713</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.5730018977718957</v>
+        <v>0.5730018977718958</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5005507728969106</v>
+        <v>0.4966494863812477</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6457241016985998</v>
+        <v>0.6522661101907115</v>
       </c>
     </row>
     <row r="19">
@@ -8514,19 +8514,19 @@
         <v>67534</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59522</v>
+        <v>59944</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72576</v>
+        <v>72652</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8783193476547972</v>
+        <v>0.8783193476547976</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7741197369819824</v>
+        <v>0.7796026573908458</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9438974570029918</v>
+        <v>0.9448782912378486</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>111</v>
@@ -8535,19 +8535,19 @@
         <v>86039</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80041</v>
+        <v>79839</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91107</v>
+        <v>90881</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8692683096799796</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8086628334109611</v>
+        <v>0.806629047687469</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9204656797947022</v>
+        <v>0.9181871620369906</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>165</v>
@@ -8556,19 +8556,19 @@
         <v>153573</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>143177</v>
+        <v>144003</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>161433</v>
+        <v>161344</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8732254466970889</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.814110666932038</v>
+        <v>0.8188088426860189</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9179161512783529</v>
+        <v>0.9174106955418614</v>
       </c>
     </row>
     <row r="20">
@@ -8585,19 +8585,19 @@
         <v>30755</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21294</v>
+        <v>20846</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42419</v>
+        <v>42301</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.3999833018870163</v>
+        <v>0.3999833018870164</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2769462127873493</v>
+        <v>0.271108256000172</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5516847293855841</v>
+        <v>0.550143827604769</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -8606,19 +8606,19 @@
         <v>44684</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35568</v>
+        <v>37143</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52984</v>
+        <v>53469</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4546884479963036</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3619275690712375</v>
+        <v>0.3779557320340831</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5391495836711641</v>
+        <v>0.54408898415573</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>79</v>
@@ -8627,19 +8627,19 @@
         <v>75439</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>61966</v>
+        <v>62732</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>90131</v>
+        <v>90300</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4306748998880677</v>
+        <v>0.4306748998880676</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3537599127373078</v>
+        <v>0.3581331252436157</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.514549626041651</v>
+        <v>0.5155170353246195</v>
       </c>
     </row>
     <row r="21">
@@ -8656,19 +8656,19 @@
         <v>39736</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>29618</v>
+        <v>28420</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>50820</v>
+        <v>49695</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5167906724548322</v>
+        <v>0.5167906724548325</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.385200769117429</v>
+        <v>0.3696189587657071</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6609403242610832</v>
+        <v>0.6463101432815898</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>68</v>
@@ -8677,19 +8677,19 @@
         <v>51052</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>41727</v>
+        <v>42083</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>59953</v>
+        <v>59042</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.5157872998268443</v>
+        <v>0.5157872998268445</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4215728222871666</v>
+        <v>0.4251664393215553</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6057146541339699</v>
+        <v>0.5965151570755043</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>98</v>
@@ -8698,19 +8698,19 @@
         <v>90788</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>77057</v>
+        <v>76956</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>105197</v>
+        <v>105948</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5162259769132971</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.438151646976781</v>
+        <v>0.4375768133693459</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5981551063990221</v>
+        <v>0.6024284474805924</v>
       </c>
     </row>
     <row r="22">
@@ -8727,19 +8727,19 @@
         <v>32407</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22228</v>
+        <v>22292</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43775</v>
+        <v>43906</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4214706656668545</v>
+        <v>0.4214706656668546</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2890942512892323</v>
+        <v>0.2899229362293696</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5693234671805615</v>
+        <v>0.571027226353225</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -8748,19 +8748,19 @@
         <v>40705</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31711</v>
+        <v>31968</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>49448</v>
+        <v>49502</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4112438026474612</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3203782563893909</v>
+        <v>0.3229796492376534</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4995805804735404</v>
+        <v>0.5001281967581387</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>70</v>
@@ -8769,19 +8769,19 @@
         <v>73111</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>59462</v>
+        <v>59917</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88205</v>
+        <v>88036</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.415715013389869</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3381031737911144</v>
+        <v>0.3406898172854264</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5015367996811212</v>
+        <v>0.500578451156463</v>
       </c>
     </row>
     <row r="23">
@@ -8798,19 +8798,19 @@
         <v>22281</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>13165</v>
+        <v>13319</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>33551</v>
+        <v>33088</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2897777127970248</v>
+        <v>0.2897777127970249</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1712192290015156</v>
+        <v>0.1732245544768164</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4363531256889272</v>
+        <v>0.4303336819243287</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>43</v>
@@ -8819,19 +8819,19 @@
         <v>34477</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>25479</v>
+        <v>26603</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43660</v>
+        <v>43132</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3483288744195046</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2574226847465151</v>
+        <v>0.2687697072272171</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.441104229306025</v>
+        <v>0.4357706756226677</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>59</v>
@@ -8840,19 +8840,19 @@
         <v>56758</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>44133</v>
+        <v>44559</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>71364</v>
+        <v>71954</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3227301563834418</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.250941177830262</v>
+        <v>0.2533666266087212</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.405777154964431</v>
+        <v>0.409131260892492</v>
       </c>
     </row>
     <row r="24">
@@ -8869,19 +8869,19 @@
         <v>13371</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6264</v>
+        <v>6958</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24188</v>
+        <v>24173</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1739037959346147</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08146772171479562</v>
+        <v>0.09048883848571522</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3145833502097545</v>
+        <v>0.3143874450015082</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -8890,19 +8890,19 @@
         <v>12839</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7590</v>
+        <v>6997</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>21646</v>
+        <v>21225</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1297180287393008</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07668367528434616</v>
+        <v>0.07068683834795141</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.218693112057322</v>
+        <v>0.2144402656057135</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>25</v>
@@ -8911,19 +8911,19 @@
         <v>26211</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>17333</v>
+        <v>16934</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>38257</v>
+        <v>39237</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1490361594867817</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09855503231324521</v>
+        <v>0.09628617108070391</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.217528906533884</v>
+        <v>0.2231057228433979</v>
       </c>
     </row>
     <row r="25">
@@ -8944,19 +8944,19 @@
         <v>284107</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>265959</v>
+        <v>264942</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>301265</v>
+        <v>301120</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7475558764463914</v>
+        <v>0.7475558764463912</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6998037745481578</v>
+        <v>0.697126840654991</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7927014373613185</v>
+        <v>0.7923205256092756</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>368</v>
@@ -8965,19 +8965,19 @@
         <v>264849</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>250402</v>
+        <v>252221</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>278177</v>
+        <v>278236</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7749119603876697</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7326418351314498</v>
+        <v>0.73796251071084</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8139054413299256</v>
+        <v>0.8140788640557574</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>611</v>
@@ -8986,19 +8986,19 @@
         <v>548957</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>523036</v>
+        <v>527201</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>570216</v>
+        <v>571018</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7605087792324416</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7245988579331085</v>
+        <v>0.7303688797858371</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7899603769058091</v>
+        <v>0.7910707973186587</v>
       </c>
     </row>
     <row r="26">
@@ -9015,19 +9015,19 @@
         <v>235048</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>213377</v>
+        <v>213356</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>255947</v>
+        <v>254718</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6184680314350416</v>
+        <v>0.6184680314350414</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5614469687494925</v>
+        <v>0.5613926691173883</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6734609433835029</v>
+        <v>0.6702250171429104</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>309</v>
@@ -9036,19 +9036,19 @@
         <v>230759</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>216375</v>
+        <v>215255</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>245887</v>
+        <v>244892</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6751687219679502</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6330839094259696</v>
+        <v>0.629805467742873</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7194295145353443</v>
+        <v>0.7165183041552778</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>509</v>
@@ -9057,19 +9057,19 @@
         <v>465807</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>439961</v>
+        <v>442350</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>490213</v>
+        <v>493377</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6453153877288447</v>
+        <v>0.6453153877288446</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.609509293308355</v>
+        <v>0.6128180885577665</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6791258467813526</v>
+        <v>0.6835091790688265</v>
       </c>
     </row>
     <row r="27">
@@ -9086,19 +9086,19 @@
         <v>137708</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>117226</v>
+        <v>116638</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>160998</v>
+        <v>158694</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3650887238905267</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3107888470987639</v>
+        <v>0.3092295950155105</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.426835861434286</v>
+        <v>0.4207270116915774</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>195</v>
@@ -9107,19 +9107,19 @@
         <v>146007</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>130360</v>
+        <v>129872</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>163010</v>
+        <v>163528</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4280793422967824</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3822037846666448</v>
+        <v>0.3807725212676534</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4779292400764725</v>
+        <v>0.479448876827059</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>303</v>
@@ -9128,19 +9128,19 @@
         <v>283715</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>256102</v>
+        <v>256829</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>310509</v>
+        <v>310357</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3950004405155739</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3565557478143702</v>
+        <v>0.3575682746956856</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4323039399218752</v>
+        <v>0.4320932090186855</v>
       </c>
     </row>
     <row r="28">
@@ -9157,19 +9157,19 @@
         <v>240192</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>218312</v>
+        <v>218266</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>258169</v>
+        <v>261363</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.6320033332336061</v>
+        <v>0.632003333233606</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5744322148419702</v>
+        <v>0.5743109793282966</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6793075564146898</v>
+        <v>0.6877117777704027</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>291</v>
@@ -9178,19 +9178,19 @@
         <v>208329</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>193123</v>
+        <v>192724</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>224473</v>
+        <v>224236</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6095420272456515</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5650492635864248</v>
+        <v>0.5638819376044171</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6567760533060001</v>
+        <v>0.6560831860821039</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>498</v>
@@ -9199,19 +9199,19 @@
         <v>448521</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>423797</v>
+        <v>421765</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>473542</v>
+        <v>476092</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6213680714931382</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5871153859564587</v>
+        <v>0.5842999896196973</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6560309854956028</v>
+        <v>0.6595635196142604</v>
       </c>
     </row>
     <row r="29">
@@ -9228,19 +9228,19 @@
         <v>97134</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>77570</v>
+        <v>79326</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>118639</v>
+        <v>118007</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2555824694634923</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2041048869027986</v>
+        <v>0.2087258555579456</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3121681515944278</v>
+        <v>0.3105064900445888</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>149</v>
@@ -9249,19 +9249,19 @@
         <v>114915</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>100741</v>
+        <v>99537</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>130584</v>
+        <v>130167</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3362248870405912</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2947542493384668</v>
+        <v>0.2912302793495826</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3820703518243594</v>
+        <v>0.3808495697268682</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>223</v>
@@ -9270,19 +9270,19 @@
         <v>212049</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>186676</v>
+        <v>187291</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>239682</v>
+        <v>239106</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2937660558843571</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2586148513384472</v>
+        <v>0.2594678679425919</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.332048581374984</v>
+        <v>0.3312497440864883</v>
       </c>
     </row>
     <row r="30">
@@ -9299,19 +9299,19 @@
         <v>77437</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>60780</v>
+        <v>58060</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>96588</v>
+        <v>96830</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2037569162755867</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1599261073552732</v>
+        <v>0.152769220740838</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2541479770599595</v>
+        <v>0.2547825996270651</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>132</v>
@@ -9320,19 +9320,19 @@
         <v>95488</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>82284</v>
+        <v>82311</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>111253</v>
+        <v>112501</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2793830861097091</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2407506480784401</v>
+        <v>0.2408298126618486</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3255101439241633</v>
+        <v>0.3291630633214596</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>193</v>
@@ -9341,19 +9341,19 @@
         <v>172925</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>149871</v>
+        <v>151087</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>197010</v>
+        <v>197916</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2395653466066767</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2076263623606608</v>
+        <v>0.2093112114163896</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2729316248693414</v>
+        <v>0.2741871616377525</v>
       </c>
     </row>
     <row r="31">
@@ -9370,19 +9370,19 @@
         <v>39513</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>27607</v>
+        <v>27392</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>54905</v>
+        <v>57287</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1039686751932738</v>
+        <v>0.1039686751932737</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07264166490930453</v>
+        <v>0.07207522670930741</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1444698956759914</v>
+        <v>0.1507363274604522</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>41</v>
@@ -9391,19 +9391,19 @@
         <v>31837</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>22350</v>
+        <v>23026</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>42674</v>
+        <v>41715</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09315201517145161</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06539248520709495</v>
+        <v>0.06737044946981442</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1248584204006505</v>
+        <v>0.1220508901810559</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>76</v>
@@ -9412,19 +9412,19 @@
         <v>71351</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>56269</v>
+        <v>56159</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>92223</v>
+        <v>90355</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09884706692386032</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07795310973571258</v>
+        <v>0.07780141615458831</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1277628142987661</v>
+        <v>0.1251753786496982</v>
       </c>
     </row>
     <row r="32">
